--- a/AWSServerless_Google_Geocoding_Mvc/Content/FileUpload/test2.xlsx
+++ b/AWSServerless_Google_Geocoding_Mvc/Content/FileUpload/test2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Enlem</t>
   </si>
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,83 +406,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>41.037072000000002</v>
-      </c>
-      <c r="B5">
-        <v>28.885161</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>41.037072999999999</v>
-      </c>
-      <c r="B6">
-        <v>28.885162000000001</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>41.017057999999999</v>
-      </c>
-      <c r="B7">
-        <v>28.985568000000001</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>41.079399000000002</v>
-      </c>
-      <c r="B8">
-        <v>28.976369999999999</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>41.037070999999997</v>
-      </c>
-      <c r="B9">
-        <v>28.885159999999999</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>41.037072000000002</v>
-      </c>
-      <c r="B10">
-        <v>28.885161</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>41.037072999999999</v>
-      </c>
-      <c r="B11">
-        <v>28.885162000000001</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
